--- a/data/categorial_size_experiment/results/B_1000_cs results archi.xlsx
+++ b/data/categorial_size_experiment/results/B_1000_cs results archi.xlsx
@@ -374,7 +374,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="5">
@@ -398,103 +398,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.957</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.00619999999999998</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8916</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.00219999999999998</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9456</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.00839999999999996</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8861</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.00119999999999998</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9498</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.881</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.945</v>
+        <v>0.951</v>
       </c>
     </row>
   </sheetData>
